--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasioszafeiriou/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6ECD6E9A-75C9-6744-A1F6-C986AADEE1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A23BFF-B6A5-C549-8620-3161220C9E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="760" windowWidth="28040" windowHeight="17180" xr2:uid="{2EE5EA6E-3EA6-304A-8B71-709AAFDD0FCC}"/>
   </bookViews>
@@ -33,6 +33,29 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Accommodation</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,12 +425,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{933BD2B0-846A-CC48-A8C0-C09574CD044E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -40,10 +40,16 @@
     <t>ZED</t>
   </si>
   <si>
+    <t>AKALI</t>
+  </si>
+  <si>
     <t>Cleaning</t>
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>test1</t>
   </si>
 </sst>
 </file>
@@ -401,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,13 +444,33 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>10000</v>
       </c>
       <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
+      </c>
+      <c r="E3">
+        <v>200</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>Cleaning</t>
+  </si>
+  <si>
+    <t>Linen</t>
   </si>
   <si>
     <t>test</t>
@@ -407,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,7 +453,7 @@
         <v>10000</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -470,7 +473,24 @@
         <v>200</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Linen</t>
+  </si>
+  <si>
+    <t>Utilities</t>
   </si>
   <si>
     <t>test</t>
@@ -410,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,7 +456,7 @@
         <v>10000</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -473,7 +476,7 @@
         <v>200</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -491,6 +494,23 @@
       </c>
       <c r="E4">
         <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -43,6 +43,9 @@
     <t>AKALI</t>
   </si>
   <si>
+    <t>NAMI</t>
+  </si>
+  <si>
     <t>Cleaning</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
   </si>
   <si>
     <t>test1</t>
+  </si>
+  <si>
+    <t>TEST2</t>
   </si>
 </sst>
 </file>
@@ -413,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,13 +456,13 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>10000</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -470,13 +476,13 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>200</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -490,7 +496,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>200</v>
@@ -507,10 +513,30 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>500</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10315"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasioszafeiriou/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4324B6B-F258-ED42-A524-593C9F9197A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -38,13 +32,31 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>2025-11-12</t>
+  </si>
+  <si>
+    <t>ZED</t>
+  </si>
+  <si>
+    <t>καθαρισμός</t>
+  </si>
+  <si>
+    <t>τεστ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,21 +119,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -159,7 +163,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -193,7 +197,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -228,10 +231,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -404,19 +406,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -434,6 +431,38 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>3500</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>2025</v>
       </c>
     </row>
   </sheetData>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -46,10 +46,19 @@
     <t>ZED</t>
   </si>
   <si>
+    <t>CHELI</t>
+  </si>
+  <si>
     <t>καθαρισμός</t>
   </si>
   <si>
+    <t>dada</t>
+  </si>
+  <si>
     <t>τεστ</t>
+  </si>
+  <si>
+    <t>τεστ1</t>
   </si>
 </sst>
 </file>
@@ -407,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,18 +459,44 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>3500</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>400</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
         <v>2025</v>
       </c>
     </row>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -55,10 +55,16 @@
     <t>dada</t>
   </si>
   <si>
+    <t>321312</t>
+  </si>
+  <si>
     <t>τεστ</t>
   </si>
   <si>
     <t>τεστ1</t>
+  </si>
+  <si>
+    <t>eqweqw</t>
   </si>
 </sst>
 </file>
@@ -416,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,7 +471,7 @@
         <v>3500</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -491,12 +497,38 @@
         <v>400</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>1762958430</v>
+      </c>
+      <c r="H4">
         <v>2025</v>
       </c>
     </row>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -43,22 +43,16 @@
     <t>2025-11-12</t>
   </si>
   <si>
+    <t>CHELI</t>
+  </si>
+  <si>
     <t>ZED</t>
   </si>
   <si>
-    <t>CHELI</t>
-  </si>
-  <si>
-    <t>καθαρισμός</t>
-  </si>
-  <si>
     <t>dada</t>
   </si>
   <si>
     <t>321312</t>
-  </si>
-  <si>
-    <t>τεστ</t>
   </si>
   <si>
     <t>τεστ1</t>
@@ -422,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,7 +453,7 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -468,13 +462,13 @@
         <v>11</v>
       </c>
       <c r="E2">
-        <v>3500</v>
+        <v>400</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2">
         <v>2025</v>
@@ -485,7 +479,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -494,41 +488,15 @@
         <v>12</v>
       </c>
       <c r="E3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>1762958430</v>
       </c>
       <c r="H3">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4">
-        <v>1762958430</v>
-      </c>
-      <c r="H4">
         <v>2025</v>
       </c>
     </row>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -55,10 +55,16 @@
     <t>321312</t>
   </si>
   <si>
+    <t>ωζζχω</t>
+  </si>
+  <si>
     <t>τεστ1</t>
   </si>
   <si>
     <t>eqweqw</t>
+  </si>
+  <si>
+    <t>δασψ</t>
   </si>
 </sst>
 </file>
@@ -416,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,7 +471,7 @@
         <v>400</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -491,12 +497,38 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3">
         <v>1762958430</v>
       </c>
       <c r="H3">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
         <v>2025</v>
       </c>
     </row>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -58,6 +58,9 @@
     <t>ωζζχω</t>
   </si>
   <si>
+    <t>ghfgh</t>
+  </si>
+  <si>
     <t>τεστ1</t>
   </si>
   <si>
@@ -65,6 +68,9 @@
   </si>
   <si>
     <t>δασψ</t>
+  </si>
+  <si>
+    <t>fghfg</t>
   </si>
 </sst>
 </file>
@@ -422,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,7 +477,7 @@
         <v>400</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -497,7 +503,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3">
         <v>1762958430</v>
@@ -523,12 +529,35 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
       <c r="H4">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>50000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
         <v>2025</v>
       </c>
     </row>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -61,6 +61,9 @@
     <t>ghfgh</t>
   </si>
   <si>
+    <t>eager</t>
+  </si>
+  <si>
     <t>τεστ1</t>
   </si>
   <si>
@@ -71,6 +74,9 @@
   </si>
   <si>
     <t>fghfg</t>
+  </si>
+  <si>
+    <t>vsvs</t>
   </si>
 </sst>
 </file>
@@ -428,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,7 +483,7 @@
         <v>400</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -503,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3">
         <v>1762958430</v>
@@ -529,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -552,12 +558,35 @@
         <v>50000</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
       <c r="H5">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>1000</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
         <v>2025</v>
       </c>
     </row>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10315"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasioszafeiriou/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1C153A7-7301-2949-A10C-8ED57576D748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Month</t>
   </si>
@@ -41,13 +35,19 @@
   </si>
   <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>ZED</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,21 +110,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -162,7 +154,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -196,7 +188,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -231,10 +222,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -407,16 +397,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -437,6 +425,29 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>2500</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>2025</v>
       </c>
     </row>
   </sheetData>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Month</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>test2</t>
   </si>
 </sst>
 </file>
@@ -398,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,6 +453,29 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>2500</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Month</t>
   </si>
@@ -40,10 +40,16 @@
     <t>ZED</t>
   </si>
   <si>
+    <t>CHELI</t>
+  </si>
+  <si>
     <t>test</t>
   </si>
   <si>
     <t>test2</t>
+  </si>
+  <si>
+    <t>test3</t>
   </si>
 </sst>
 </file>
@@ -401,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,13 +444,13 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>2500</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -461,18 +467,41 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>2500</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>3000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
         <v>2025</v>
       </c>
     </row>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>Month</t>
   </si>
@@ -407,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -505,6 +505,29 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>3000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>Month</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>test3</t>
+  </si>
+  <si>
+    <t>Supplies</t>
   </si>
 </sst>
 </file>
@@ -407,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,6 +531,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>500</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>Month</t>
   </si>
@@ -410,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -551,6 +551,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>500</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>Month</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Supplies</t>
+  </si>
+  <si>
+    <t>sadgasdg</t>
   </si>
 </sst>
 </file>
@@ -410,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -571,6 +574,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>1040</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>Month</t>
   </si>
@@ -43,6 +43,9 @@
     <t>CHELI</t>
   </si>
   <si>
+    <t>THRESH_A3</t>
+  </si>
+  <si>
     <t>test</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
   </si>
   <si>
     <t>sadgasdg</t>
+  </si>
+  <si>
+    <t>τεστ</t>
   </si>
 </sst>
 </file>
@@ -413,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,13 +456,13 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>2500</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -473,13 +479,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>2500</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -496,13 +502,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>3000</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -519,13 +525,13 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>3000</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -542,7 +548,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>500</v>
@@ -562,7 +568,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>500</v>
@@ -582,7 +588,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>1040</v>
@@ -591,6 +597,26 @@
         <v>7</v>
       </c>
       <c r="G8">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
         <v>2025</v>
       </c>
     </row>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2939" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2941" uniqueCount="330">
   <si>
     <t>Month</t>
   </si>
@@ -1361,7 +1361,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1525"/>
+  <dimension ref="A1:G1526"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31522,6 +31522,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1526" spans="1:7">
+      <c r="A1526">
+        <v>11</v>
+      </c>
+      <c r="B1526" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1526">
+        <v>135</v>
+      </c>
+      <c r="E1526" t="s">
+        <v>265</v>
+      </c>
+      <c r="F1526">
+        <v>1550</v>
+      </c>
+      <c r="G1526">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2941" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2943" uniqueCount="330">
   <si>
     <t>Month</t>
   </si>
@@ -1361,7 +1361,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1526"/>
+  <dimension ref="A1:G1527"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31542,6 +31542,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1527" spans="1:7">
+      <c r="A1527">
+        <v>11</v>
+      </c>
+      <c r="B1527" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1527">
+        <v>2.4</v>
+      </c>
+      <c r="E1527" t="s">
+        <v>254</v>
+      </c>
+      <c r="F1527">
+        <v>1551</v>
+      </c>
+      <c r="G1527">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2943" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2945" uniqueCount="330">
   <si>
     <t>Month</t>
   </si>
@@ -1361,7 +1361,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1527"/>
+  <dimension ref="A1:G1528"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31562,6 +31562,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1528" spans="1:7">
+      <c r="A1528">
+        <v>11</v>
+      </c>
+      <c r="B1528" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1528">
+        <v>78</v>
+      </c>
+      <c r="E1528" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1528">
+        <v>1552</v>
+      </c>
+      <c r="G1528">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2945" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2947" uniqueCount="330">
   <si>
     <t>Month</t>
   </si>
@@ -1361,7 +1361,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1528"/>
+  <dimension ref="A1:G1529"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31582,6 +31582,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1529" spans="1:7">
+      <c r="A1529">
+        <v>11</v>
+      </c>
+      <c r="B1529" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1529">
+        <v>6.38</v>
+      </c>
+      <c r="E1529" t="s">
+        <v>254</v>
+      </c>
+      <c r="F1529">
+        <v>1553</v>
+      </c>
+      <c r="G1529">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2947" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2949" uniqueCount="330">
   <si>
     <t>Month</t>
   </si>
@@ -1361,7 +1361,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1529"/>
+  <dimension ref="A1:G1530"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31602,6 +31602,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1530" spans="1:7">
+      <c r="A1530">
+        <v>11</v>
+      </c>
+      <c r="B1530" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1530">
+        <v>30</v>
+      </c>
+      <c r="E1530" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1530">
+        <v>1554</v>
+      </c>
+      <c r="G1530">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2949" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2951" uniqueCount="330">
   <si>
     <t>Month</t>
   </si>
@@ -1361,7 +1361,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1530"/>
+  <dimension ref="A1:G1531"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31622,6 +31622,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1531" spans="1:7">
+      <c r="A1531">
+        <v>11</v>
+      </c>
+      <c r="B1531" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1531">
+        <v>496</v>
+      </c>
+      <c r="E1531" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1531">
+        <v>1555</v>
+      </c>
+      <c r="G1531">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2951" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2953" uniqueCount="331">
   <si>
     <t>Month</t>
   </si>
@@ -1004,6 +1004,9 @@
   </si>
   <si>
     <t xml:space="preserve">λαμπες </t>
+  </si>
+  <si>
+    <t xml:space="preserve">λαμπες καναλια κλπ </t>
   </si>
 </sst>
 </file>
@@ -1361,7 +1364,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1531"/>
+  <dimension ref="A1:G1532"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31642,6 +31645,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1532" spans="1:7">
+      <c r="A1532">
+        <v>11</v>
+      </c>
+      <c r="B1532" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1532">
+        <v>50.03</v>
+      </c>
+      <c r="E1532" t="s">
+        <v>330</v>
+      </c>
+      <c r="F1532">
+        <v>1556</v>
+      </c>
+      <c r="G1532">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2953" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2955" uniqueCount="331">
   <si>
     <t>Month</t>
   </si>
@@ -1364,7 +1364,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1532"/>
+  <dimension ref="A1:G1533"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31665,6 +31665,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1533" spans="1:7">
+      <c r="A1533">
+        <v>11</v>
+      </c>
+      <c r="B1533" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1533">
+        <v>47</v>
+      </c>
+      <c r="E1533" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1533">
+        <v>1557</v>
+      </c>
+      <c r="G1533">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2955" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2957" uniqueCount="331">
   <si>
     <t>Month</t>
   </si>
@@ -1364,7 +1364,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1533"/>
+  <dimension ref="A1:G1534"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31685,6 +31685,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1534" spans="1:7">
+      <c r="A1534">
+        <v>11</v>
+      </c>
+      <c r="B1534" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1534">
+        <v>215</v>
+      </c>
+      <c r="E1534" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1534">
+        <v>1558</v>
+      </c>
+      <c r="G1534">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2957" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2959" uniqueCount="331">
   <si>
     <t>Month</t>
   </si>
@@ -1364,7 +1364,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1534"/>
+  <dimension ref="A1:G1535"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31705,6 +31705,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1535" spans="1:7">
+      <c r="A1535">
+        <v>11</v>
+      </c>
+      <c r="B1535" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1535">
+        <v>60</v>
+      </c>
+      <c r="E1535" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1535">
+        <v>1559</v>
+      </c>
+      <c r="G1535">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2959" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2961" uniqueCount="331">
   <si>
     <t>Month</t>
   </si>
@@ -1364,7 +1364,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1535"/>
+  <dimension ref="A1:G1536"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31725,6 +31725,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1536" spans="1:7">
+      <c r="A1536">
+        <v>11</v>
+      </c>
+      <c r="B1536" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1536">
+        <v>80</v>
+      </c>
+      <c r="E1536" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1536">
+        <v>1560</v>
+      </c>
+      <c r="G1536">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2961" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2963" uniqueCount="331">
   <si>
     <t>Month</t>
   </si>
@@ -1364,7 +1364,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1536"/>
+  <dimension ref="A1:G1537"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31745,6 +31745,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1537" spans="1:7">
+      <c r="A1537">
+        <v>11</v>
+      </c>
+      <c r="B1537" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1537">
+        <v>100</v>
+      </c>
+      <c r="E1537" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1537">
+        <v>1561</v>
+      </c>
+      <c r="G1537">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2963" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2965" uniqueCount="331">
   <si>
     <t>Month</t>
   </si>
@@ -1364,7 +1364,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1537"/>
+  <dimension ref="A1:G1538"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31765,6 +31765,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1538" spans="1:7">
+      <c r="A1538">
+        <v>11</v>
+      </c>
+      <c r="B1538" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1538">
+        <v>80</v>
+      </c>
+      <c r="E1538" t="s">
+        <v>172</v>
+      </c>
+      <c r="F1538">
+        <v>1562</v>
+      </c>
+      <c r="G1538">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2965" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2967" uniqueCount="331">
   <si>
     <t>Month</t>
   </si>
@@ -1364,7 +1364,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1538"/>
+  <dimension ref="A1:G1539"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31785,6 +31785,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1539" spans="1:7">
+      <c r="A1539">
+        <v>11</v>
+      </c>
+      <c r="B1539" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1539">
+        <v>40</v>
+      </c>
+      <c r="E1539" t="s">
+        <v>228</v>
+      </c>
+      <c r="F1539">
+        <v>1563</v>
+      </c>
+      <c r="G1539">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2967" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2969" uniqueCount="331">
   <si>
     <t>Month</t>
   </si>
@@ -1364,7 +1364,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1539"/>
+  <dimension ref="A1:G1540"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31805,6 +31805,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1540" spans="1:7">
+      <c r="A1540">
+        <v>11</v>
+      </c>
+      <c r="B1540" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1540">
+        <v>130.2</v>
+      </c>
+      <c r="E1540" t="s">
+        <v>211</v>
+      </c>
+      <c r="F1540">
+        <v>1564</v>
+      </c>
+      <c r="G1540">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2969" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2971" uniqueCount="332">
   <si>
     <t>Month</t>
   </si>
@@ -1007,6 +1007,9 @@
   </si>
   <si>
     <t xml:space="preserve">λαμπες καναλια κλπ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ΜΑΡΜΑΡΙΔΗΣ </t>
   </si>
 </sst>
 </file>
@@ -1364,7 +1367,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1540"/>
+  <dimension ref="A1:G1541"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31825,6 +31828,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1541" spans="1:7">
+      <c r="A1541">
+        <v>11</v>
+      </c>
+      <c r="B1541" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1541">
+        <v>1290</v>
+      </c>
+      <c r="E1541" t="s">
+        <v>331</v>
+      </c>
+      <c r="F1541">
+        <v>1565</v>
+      </c>
+      <c r="G1541">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2971" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2973" uniqueCount="333">
   <si>
     <t>Month</t>
   </si>
@@ -1010,6 +1010,9 @@
   </si>
   <si>
     <t xml:space="preserve">ΜΑΡΜΑΡΙΔΗΣ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ΠΕΤΡΕΛΑΙΟ </t>
   </si>
 </sst>
 </file>
@@ -1367,7 +1370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1541"/>
+  <dimension ref="A1:G1542"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31848,6 +31851,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1542" spans="1:7">
+      <c r="A1542">
+        <v>11</v>
+      </c>
+      <c r="B1542" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1542">
+        <v>696</v>
+      </c>
+      <c r="E1542" t="s">
+        <v>332</v>
+      </c>
+      <c r="F1542">
+        <v>1566</v>
+      </c>
+      <c r="G1542">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2973" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2975" uniqueCount="334">
   <si>
     <t>Month</t>
   </si>
@@ -1013,6 +1013,9 @@
   </si>
   <si>
     <t xml:space="preserve">ΠΕΤΡΕΛΑΙΟ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">κουρτίνες </t>
   </si>
 </sst>
 </file>
@@ -1370,7 +1373,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1542"/>
+  <dimension ref="A1:G1543"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31871,6 +31874,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1543" spans="1:7">
+      <c r="A1543">
+        <v>11</v>
+      </c>
+      <c r="B1543" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1543">
+        <v>111.2</v>
+      </c>
+      <c r="E1543" t="s">
+        <v>333</v>
+      </c>
+      <c r="F1543">
+        <v>1567</v>
+      </c>
+      <c r="G1543">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2975" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2977" uniqueCount="334">
   <si>
     <t>Month</t>
   </si>
@@ -1373,7 +1373,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1543"/>
+  <dimension ref="A1:G1544"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31894,6 +31894,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1544" spans="1:7">
+      <c r="A1544">
+        <v>11</v>
+      </c>
+      <c r="B1544" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1544">
+        <v>40</v>
+      </c>
+      <c r="E1544" t="s">
+        <v>228</v>
+      </c>
+      <c r="F1544">
+        <v>1568</v>
+      </c>
+      <c r="G1544">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2977" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2979" uniqueCount="335">
   <si>
     <t>Month</t>
   </si>
@@ -1016,6 +1016,9 @@
   </si>
   <si>
     <t xml:space="preserve">κουρτίνες </t>
+  </si>
+  <si>
+    <t>ΠΙΝΑΚΑΣ</t>
   </si>
 </sst>
 </file>
@@ -1373,7 +1376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1544"/>
+  <dimension ref="A1:G1545"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31914,6 +31917,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1545" spans="1:7">
+      <c r="A1545">
+        <v>11</v>
+      </c>
+      <c r="B1545" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1545">
+        <v>98.29000000000001</v>
+      </c>
+      <c r="E1545" t="s">
+        <v>334</v>
+      </c>
+      <c r="F1545">
+        <v>1569</v>
+      </c>
+      <c r="G1545">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2979" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2981" uniqueCount="336">
   <si>
     <t>Month</t>
   </si>
@@ -1019,6 +1019,9 @@
   </si>
   <si>
     <t>ΠΙΝΑΚΑΣ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Στόρια </t>
   </si>
 </sst>
 </file>
@@ -1376,7 +1379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1545"/>
+  <dimension ref="A1:G1546"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31937,6 +31940,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1546" spans="1:7">
+      <c r="A1546">
+        <v>11</v>
+      </c>
+      <c r="B1546" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1546">
+        <v>157.43</v>
+      </c>
+      <c r="E1546" t="s">
+        <v>335</v>
+      </c>
+      <c r="F1546">
+        <v>1570</v>
+      </c>
+      <c r="G1546">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2981" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2983" uniqueCount="337">
   <si>
     <t>Month</t>
   </si>
@@ -1022,6 +1022,9 @@
   </si>
   <si>
     <t xml:space="preserve">Στόρια </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ΔΕΗ  </t>
   </si>
 </sst>
 </file>
@@ -1379,7 +1382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1546"/>
+  <dimension ref="A1:G1547"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31960,6 +31963,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1547" spans="1:7">
+      <c r="A1547">
+        <v>11</v>
+      </c>
+      <c r="B1547" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1547">
+        <v>671</v>
+      </c>
+      <c r="E1547" t="s">
+        <v>336</v>
+      </c>
+      <c r="F1547">
+        <v>1571</v>
+      </c>
+      <c r="G1547">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2983" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="337">
   <si>
     <t>Month</t>
   </si>
@@ -1382,7 +1382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1547"/>
+  <dimension ref="A1:G1548"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31983,6 +31983,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1548" spans="1:7">
+      <c r="A1548">
+        <v>11</v>
+      </c>
+      <c r="B1548" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1548">
+        <v>87.44</v>
+      </c>
+      <c r="E1548" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1548">
+        <v>1572</v>
+      </c>
+      <c r="G1548">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2987" uniqueCount="337">
   <si>
     <t>Month</t>
   </si>
@@ -1382,7 +1382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1548"/>
+  <dimension ref="A1:G1549"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32003,6 +32003,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1549" spans="1:7">
+      <c r="A1549">
+        <v>11</v>
+      </c>
+      <c r="B1549" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1549">
+        <v>21.81</v>
+      </c>
+      <c r="E1549" t="s">
+        <v>254</v>
+      </c>
+      <c r="F1549">
+        <v>1573</v>
+      </c>
+      <c r="G1549">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2987" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2989" uniqueCount="337">
   <si>
     <t>Month</t>
   </si>
@@ -1382,7 +1382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1549"/>
+  <dimension ref="A1:G1550"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32023,6 +32023,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1550" spans="1:7">
+      <c r="A1550">
+        <v>11</v>
+      </c>
+      <c r="B1550" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1550">
+        <v>150</v>
+      </c>
+      <c r="E1550" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1550">
+        <v>1574</v>
+      </c>
+      <c r="G1550">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2989" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2991" uniqueCount="337">
   <si>
     <t>Month</t>
   </si>
@@ -1382,7 +1382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1550"/>
+  <dimension ref="A1:G1551"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32043,6 +32043,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1551" spans="1:7">
+      <c r="A1551">
+        <v>11</v>
+      </c>
+      <c r="B1551" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1551">
+        <v>5.39</v>
+      </c>
+      <c r="E1551" t="s">
+        <v>254</v>
+      </c>
+      <c r="F1551">
+        <v>1575</v>
+      </c>
+      <c r="G1551">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2991" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2993" uniqueCount="337">
   <si>
     <t>Month</t>
   </si>
@@ -1382,7 +1382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1551"/>
+  <dimension ref="A1:G1552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32063,6 +32063,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1552" spans="1:7">
+      <c r="A1552">
+        <v>11</v>
+      </c>
+      <c r="B1552" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1552">
+        <v>80</v>
+      </c>
+      <c r="E1552" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1552">
+        <v>1576</v>
+      </c>
+      <c r="G1552">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2993" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2995" uniqueCount="337">
   <si>
     <t>Month</t>
   </si>
@@ -1382,7 +1382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1552"/>
+  <dimension ref="A1:G1553"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32083,6 +32083,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1553" spans="1:7">
+      <c r="A1553">
+        <v>11</v>
+      </c>
+      <c r="B1553" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1553">
+        <v>60</v>
+      </c>
+      <c r="E1553" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1553">
+        <v>1577</v>
+      </c>
+      <c r="G1553">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2995" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2997" uniqueCount="337">
   <si>
     <t>Month</t>
   </si>
@@ -1382,7 +1382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1553"/>
+  <dimension ref="A1:G1554"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32103,6 +32103,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1554" spans="1:7">
+      <c r="A1554">
+        <v>11</v>
+      </c>
+      <c r="B1554" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1554">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="E1554" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1554">
+        <v>1578</v>
+      </c>
+      <c r="G1554">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2997" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2999" uniqueCount="337">
   <si>
     <t>Month</t>
   </si>
@@ -1382,7 +1382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1554"/>
+  <dimension ref="A1:G1555"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32123,6 +32123,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1555" spans="1:7">
+      <c r="A1555">
+        <v>11</v>
+      </c>
+      <c r="B1555" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1555">
+        <v>20.69</v>
+      </c>
+      <c r="E1555" t="s">
+        <v>254</v>
+      </c>
+      <c r="F1555">
+        <v>1579</v>
+      </c>
+      <c r="G1555">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2999" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3001" uniqueCount="337">
   <si>
     <t>Month</t>
   </si>
@@ -1382,7 +1382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1555"/>
+  <dimension ref="A1:G1556"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32143,6 +32143,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1556" spans="1:7">
+      <c r="A1556">
+        <v>11</v>
+      </c>
+      <c r="B1556" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1556">
+        <v>50</v>
+      </c>
+      <c r="E1556" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1556">
+        <v>1580</v>
+      </c>
+      <c r="G1556">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3001" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3003" uniqueCount="337">
   <si>
     <t>Month</t>
   </si>
@@ -1382,7 +1382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1556"/>
+  <dimension ref="A1:G1557"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32163,6 +32163,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1557" spans="1:7">
+      <c r="A1557">
+        <v>11</v>
+      </c>
+      <c r="B1557" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1557">
+        <v>649</v>
+      </c>
+      <c r="E1557" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1557">
+        <v>1581</v>
+      </c>
+      <c r="G1557">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3003" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3005" uniqueCount="337">
   <si>
     <t>Month</t>
   </si>
@@ -1382,7 +1382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1557"/>
+  <dimension ref="A1:G1558"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32183,6 +32183,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1558" spans="1:7">
+      <c r="A1558">
+        <v>11</v>
+      </c>
+      <c r="B1558" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1558">
+        <v>30</v>
+      </c>
+      <c r="E1558" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1558">
+        <v>1582</v>
+      </c>
+      <c r="G1558">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3005" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3007" uniqueCount="337">
   <si>
     <t>Month</t>
   </si>
@@ -1382,7 +1382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1558"/>
+  <dimension ref="A1:G1559"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32203,6 +32203,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1559" spans="1:7">
+      <c r="A1559">
+        <v>11</v>
+      </c>
+      <c r="B1559" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1559">
+        <v>10</v>
+      </c>
+      <c r="E1559" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1559">
+        <v>1583</v>
+      </c>
+      <c r="G1559">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3007" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3009" uniqueCount="337">
   <si>
     <t>Month</t>
   </si>
@@ -1382,7 +1382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1559"/>
+  <dimension ref="A1:G1560"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32223,6 +32223,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1560" spans="1:7">
+      <c r="A1560">
+        <v>11</v>
+      </c>
+      <c r="B1560" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1560">
+        <v>15</v>
+      </c>
+      <c r="E1560" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1560">
+        <v>1584</v>
+      </c>
+      <c r="G1560">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3009" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3011" uniqueCount="337">
   <si>
     <t>Month</t>
   </si>
@@ -1382,7 +1382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1560"/>
+  <dimension ref="A1:G1561"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32243,6 +32243,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1561" spans="1:7">
+      <c r="A1561">
+        <v>11</v>
+      </c>
+      <c r="B1561" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1561">
+        <v>11.66</v>
+      </c>
+      <c r="E1561" t="s">
+        <v>254</v>
+      </c>
+      <c r="F1561">
+        <v>1585</v>
+      </c>
+      <c r="G1561">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3011" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3013" uniqueCount="337">
   <si>
     <t>Month</t>
   </si>
@@ -1382,7 +1382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1561"/>
+  <dimension ref="A1:G1562"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32263,6 +32263,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1562" spans="1:7">
+      <c r="A1562">
+        <v>11</v>
+      </c>
+      <c r="B1562" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1562">
+        <v>30</v>
+      </c>
+      <c r="E1562" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1562">
+        <v>1586</v>
+      </c>
+      <c r="G1562">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3013" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3015" uniqueCount="337">
   <si>
     <t>Month</t>
   </si>
@@ -1382,7 +1382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1562"/>
+  <dimension ref="A1:G1563"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32283,6 +32283,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1563" spans="1:7">
+      <c r="A1563">
+        <v>11</v>
+      </c>
+      <c r="B1563" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1563">
+        <v>486</v>
+      </c>
+      <c r="E1563" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1563">
+        <v>1587</v>
+      </c>
+      <c r="G1563">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3130" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3132" uniqueCount="316">
   <si>
     <t>Month</t>
   </si>
@@ -1319,7 +1319,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1563"/>
+  <dimension ref="A1:F1564"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32585,6 +32585,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1564" spans="1:6">
+      <c r="A1564">
+        <v>11</v>
+      </c>
+      <c r="B1564" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1564">
+        <v>69</v>
+      </c>
+      <c r="D1564" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1564">
+        <v>1589</v>
+      </c>
+      <c r="F1564">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3132" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3134" uniqueCount="316">
   <si>
     <t>Month</t>
   </si>
@@ -1319,7 +1319,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1564"/>
+  <dimension ref="A1:F1565"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32605,6 +32605,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1565" spans="1:6">
+      <c r="A1565">
+        <v>11</v>
+      </c>
+      <c r="B1565" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1565">
+        <v>60</v>
+      </c>
+      <c r="D1565" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1565">
+        <v>1590</v>
+      </c>
+      <c r="F1565">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3134" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3136" uniqueCount="317">
   <si>
     <t>Month</t>
   </si>
@@ -963,6 +963,9 @@
   <si>
     <t>-</t>
   </si>
+  <si>
+    <t xml:space="preserve">ΕΝΟΙΚΙΟ </t>
+  </si>
 </sst>
 </file>
 
@@ -1319,7 +1322,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1565"/>
+  <dimension ref="A1:F1566"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32625,6 +32628,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1566" spans="1:6">
+      <c r="A1566">
+        <v>11</v>
+      </c>
+      <c r="B1566" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1566">
+        <v>932.4</v>
+      </c>
+      <c r="D1566" t="s">
+        <v>316</v>
+      </c>
+      <c r="E1566">
+        <v>1591</v>
+      </c>
+      <c r="F1566">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3136" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3138" uniqueCount="318">
   <si>
     <t>Month</t>
   </si>
@@ -966,6 +966,9 @@
   <si>
     <t xml:space="preserve">ΕΝΟΙΚΙΟ </t>
   </si>
+  <si>
+    <t xml:space="preserve">ΤΣΟΤΡΟΣ </t>
+  </si>
 </sst>
 </file>
 
@@ -1322,7 +1325,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1566"/>
+  <dimension ref="A1:F1567"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32648,6 +32651,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1567" spans="1:6">
+      <c r="A1567">
+        <v>11</v>
+      </c>
+      <c r="B1567" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1567">
+        <v>49.6</v>
+      </c>
+      <c r="D1567" t="s">
+        <v>317</v>
+      </c>
+      <c r="E1567">
+        <v>1592</v>
+      </c>
+      <c r="F1567">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3138" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3140" uniqueCount="319">
   <si>
     <t>Month</t>
   </si>
@@ -969,6 +969,9 @@
   <si>
     <t xml:space="preserve">ΤΣΟΤΡΟΣ </t>
   </si>
+  <si>
+    <t>εργασίες βαγγελη</t>
+  </si>
 </sst>
 </file>
 
@@ -1325,7 +1328,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1567"/>
+  <dimension ref="A1:F1568"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32671,6 +32674,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1568" spans="1:6">
+      <c r="A1568">
+        <v>11</v>
+      </c>
+      <c r="B1568" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1568">
+        <v>22.5</v>
+      </c>
+      <c r="D1568" t="s">
+        <v>318</v>
+      </c>
+      <c r="E1568">
+        <v>1593</v>
+      </c>
+      <c r="F1568">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3140" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3142" uniqueCount="320">
   <si>
     <t>Month</t>
   </si>
@@ -972,6 +972,9 @@
   <si>
     <t>εργασίες βαγγελη</t>
   </si>
+  <si>
+    <t xml:space="preserve">ΕΞΤΡΑ ΚΑΘΑΡΙΣΜΟΙ </t>
+  </si>
 </sst>
 </file>
 
@@ -1328,7 +1331,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1568"/>
+  <dimension ref="A1:F1569"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32694,6 +32697,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1569" spans="1:6">
+      <c r="A1569">
+        <v>11</v>
+      </c>
+      <c r="B1569" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1569">
+        <v>605</v>
+      </c>
+      <c r="D1569" t="s">
+        <v>319</v>
+      </c>
+      <c r="E1569">
+        <v>1594</v>
+      </c>
+      <c r="F1569">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3142" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3144" uniqueCount="320">
   <si>
     <t>Month</t>
   </si>
@@ -1331,7 +1331,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1569"/>
+  <dimension ref="A1:F1570"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32717,6 +32717,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1570" spans="1:6">
+      <c r="A1570">
+        <v>11</v>
+      </c>
+      <c r="B1570" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1570">
+        <v>1139.6</v>
+      </c>
+      <c r="D1570" t="s">
+        <v>316</v>
+      </c>
+      <c r="E1570">
+        <v>1595</v>
+      </c>
+      <c r="F1570">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3144" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3146" uniqueCount="321">
   <si>
     <t>Month</t>
   </si>
@@ -975,6 +975,9 @@
   <si>
     <t xml:space="preserve">ΕΞΤΡΑ ΚΑΘΑΡΙΣΜΟΙ </t>
   </si>
+  <si>
+    <t>ΙΝΤΕΡΝΕΤ</t>
+  </si>
 </sst>
 </file>
 
@@ -1331,7 +1334,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1570"/>
+  <dimension ref="A1:F1571"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32737,6 +32740,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1571" spans="1:6">
+      <c r="A1571">
+        <v>11</v>
+      </c>
+      <c r="B1571" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1571">
+        <v>40</v>
+      </c>
+      <c r="D1571" t="s">
+        <v>320</v>
+      </c>
+      <c r="E1571">
+        <v>1596</v>
+      </c>
+      <c r="F1571">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3146" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3148" uniqueCount="321">
   <si>
     <t>Month</t>
   </si>
@@ -1334,7 +1334,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1571"/>
+  <dimension ref="A1:F1572"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32760,6 +32760,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1572" spans="1:6">
+      <c r="A1572">
+        <v>11</v>
+      </c>
+      <c r="B1572" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1572">
+        <v>8.49</v>
+      </c>
+      <c r="D1572" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1572">
+        <v>1597</v>
+      </c>
+      <c r="F1572">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3148" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3150" uniqueCount="321">
   <si>
     <t>Month</t>
   </si>
@@ -1334,7 +1334,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1572"/>
+  <dimension ref="A1:F1573"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32780,6 +32780,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1573" spans="1:6">
+      <c r="A1573">
+        <v>11</v>
+      </c>
+      <c r="B1573" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1573">
+        <v>121</v>
+      </c>
+      <c r="D1573" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1573">
+        <v>1598</v>
+      </c>
+      <c r="F1573">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3150" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3152" uniqueCount="321">
   <si>
     <t>Month</t>
   </si>
@@ -1334,7 +1334,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1573"/>
+  <dimension ref="A1:F1574"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32800,6 +32800,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1574" spans="1:6">
+      <c r="A1574">
+        <v>11</v>
+      </c>
+      <c r="B1574" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1574">
+        <v>1.38</v>
+      </c>
+      <c r="D1574" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1574">
+        <v>1599</v>
+      </c>
+      <c r="F1574">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3152" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3154" uniqueCount="321">
   <si>
     <t>Month</t>
   </si>
@@ -1334,7 +1334,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1574"/>
+  <dimension ref="A1:F1575"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32820,6 +32820,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1575" spans="1:6">
+      <c r="A1575">
+        <v>11</v>
+      </c>
+      <c r="B1575" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1575">
+        <v>29</v>
+      </c>
+      <c r="D1575" t="s">
+        <v>318</v>
+      </c>
+      <c r="E1575">
+        <v>1600</v>
+      </c>
+      <c r="F1575">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3154" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3156" uniqueCount="321">
   <si>
     <t>Month</t>
   </si>
@@ -1334,7 +1334,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1575"/>
+  <dimension ref="A1:F1576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32840,6 +32840,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1576" spans="1:6">
+      <c r="A1576">
+        <v>11</v>
+      </c>
+      <c r="B1576" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1576">
+        <v>6.93</v>
+      </c>
+      <c r="D1576" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1576">
+        <v>1601</v>
+      </c>
+      <c r="F1576">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3156" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3158" uniqueCount="322">
   <si>
     <t>Month</t>
   </si>
@@ -978,6 +978,9 @@
   <si>
     <t>ΙΝΤΕΡΝΕΤ</t>
   </si>
+  <si>
+    <t>μπάτας</t>
+  </si>
 </sst>
 </file>
 
@@ -1334,7 +1337,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1576"/>
+  <dimension ref="A1:F1577"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32860,6 +32863,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1577" spans="1:6">
+      <c r="A1577">
+        <v>11</v>
+      </c>
+      <c r="B1577" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1577">
+        <v>11.7</v>
+      </c>
+      <c r="D1577" t="s">
+        <v>321</v>
+      </c>
+      <c r="E1577">
+        <v>1602</v>
+      </c>
+      <c r="F1577">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3158" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3160" uniqueCount="322">
   <si>
     <t>Month</t>
   </si>
@@ -1337,7 +1337,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1577"/>
+  <dimension ref="A1:F1578"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32883,6 +32883,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1578" spans="1:6">
+      <c r="A1578">
+        <v>11</v>
+      </c>
+      <c r="B1578" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1578">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D1578" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1578">
+        <v>1603</v>
+      </c>
+      <c r="F1578">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3160" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3162" uniqueCount="322">
   <si>
     <t>Month</t>
   </si>
@@ -1337,7 +1337,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1578"/>
+  <dimension ref="A1:F1579"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32903,6 +32903,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1579" spans="1:6">
+      <c r="A1579">
+        <v>11</v>
+      </c>
+      <c r="B1579" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1579">
+        <v>57.9</v>
+      </c>
+      <c r="D1579" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1579">
+        <v>1604</v>
+      </c>
+      <c r="F1579">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3162" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3164" uniqueCount="322">
   <si>
     <t>Month</t>
   </si>
@@ -1337,7 +1337,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1579"/>
+  <dimension ref="A1:F1580"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32923,6 +32923,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1580" spans="1:6">
+      <c r="A1580">
+        <v>11</v>
+      </c>
+      <c r="B1580" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1580">
+        <v>24.8</v>
+      </c>
+      <c r="D1580" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1580">
+        <v>1605</v>
+      </c>
+      <c r="F1580">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3164" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3166" uniqueCount="323">
   <si>
     <t>Month</t>
   </si>
@@ -981,6 +981,9 @@
   <si>
     <t>μπάτας</t>
   </si>
+  <si>
+    <t>ΣΕΝΤΟΝΙΑ</t>
+  </si>
 </sst>
 </file>
 
@@ -1337,7 +1340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1580"/>
+  <dimension ref="A1:F1581"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32943,6 +32946,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1581" spans="1:6">
+      <c r="A1581">
+        <v>11</v>
+      </c>
+      <c r="B1581" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1581">
+        <v>514.4400000000001</v>
+      </c>
+      <c r="D1581" t="s">
+        <v>322</v>
+      </c>
+      <c r="E1581">
+        <v>1606</v>
+      </c>
+      <c r="F1581">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3166" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3168" uniqueCount="323">
   <si>
     <t>Month</t>
   </si>
@@ -1340,7 +1340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1581"/>
+  <dimension ref="A1:F1582"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32966,6 +32966,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1582" spans="1:6">
+      <c r="A1582">
+        <v>11</v>
+      </c>
+      <c r="B1582" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1582">
+        <v>772</v>
+      </c>
+      <c r="D1582" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1582">
+        <v>1607</v>
+      </c>
+      <c r="F1582">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3168" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3170" uniqueCount="323">
   <si>
     <t>Month</t>
   </si>
@@ -1340,7 +1340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1582"/>
+  <dimension ref="A1:F1583"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32986,6 +32986,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1583" spans="1:6">
+      <c r="A1583">
+        <v>11</v>
+      </c>
+      <c r="B1583" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1583">
+        <v>25.61</v>
+      </c>
+      <c r="D1583" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1583">
+        <v>1608</v>
+      </c>
+      <c r="F1583">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3170" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3172" uniqueCount="323">
   <si>
     <t>Month</t>
   </si>
@@ -1340,7 +1340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1583"/>
+  <dimension ref="A1:F1584"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33006,6 +33006,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1584" spans="1:6">
+      <c r="A1584">
+        <v>11</v>
+      </c>
+      <c r="B1584" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1584">
+        <v>25831.68</v>
+      </c>
+      <c r="D1584" t="s">
+        <v>316</v>
+      </c>
+      <c r="E1584">
+        <v>1609</v>
+      </c>
+      <c r="F1584">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3172" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3174" uniqueCount="323">
   <si>
     <t>Month</t>
   </si>
@@ -1340,7 +1340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1584"/>
+  <dimension ref="A1:F1585"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33026,6 +33026,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1585" spans="1:6">
+      <c r="A1585">
+        <v>11</v>
+      </c>
+      <c r="B1585" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1585">
+        <v>10.72</v>
+      </c>
+      <c r="D1585" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1585">
+        <v>1610</v>
+      </c>
+      <c r="F1585">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3174" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3176" uniqueCount="323">
   <si>
     <t>Month</t>
   </si>
@@ -1340,7 +1340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1585"/>
+  <dimension ref="A1:F1586"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33046,6 +33046,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1586" spans="1:6">
+      <c r="A1586">
+        <v>11</v>
+      </c>
+      <c r="B1586" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1586">
+        <v>272.8</v>
+      </c>
+      <c r="D1586" t="s">
+        <v>317</v>
+      </c>
+      <c r="E1586">
+        <v>1611</v>
+      </c>
+      <c r="F1586">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3176" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3178" uniqueCount="323">
   <si>
     <t>Month</t>
   </si>
@@ -1340,7 +1340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1586"/>
+  <dimension ref="A1:F1587"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33066,6 +33066,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1587" spans="1:6">
+      <c r="A1587">
+        <v>11</v>
+      </c>
+      <c r="B1587" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1587">
+        <v>189</v>
+      </c>
+      <c r="D1587" t="s">
+        <v>318</v>
+      </c>
+      <c r="E1587">
+        <v>1612</v>
+      </c>
+      <c r="F1587">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3178" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3180" uniqueCount="323">
   <si>
     <t>Month</t>
   </si>
@@ -1340,7 +1340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1587"/>
+  <dimension ref="A1:F1588"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33086,6 +33086,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1588" spans="1:6">
+      <c r="A1588">
+        <v>11</v>
+      </c>
+      <c r="B1588" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1588">
+        <v>122</v>
+      </c>
+      <c r="D1588" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1588">
+        <v>1613</v>
+      </c>
+      <c r="F1588">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3180" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3182" uniqueCount="323">
   <si>
     <t>Month</t>
   </si>
@@ -1340,7 +1340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1588"/>
+  <dimension ref="A1:F1589"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33106,6 +33106,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1589" spans="1:6">
+      <c r="A1589">
+        <v>11</v>
+      </c>
+      <c r="B1589" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1589">
+        <v>55.8</v>
+      </c>
+      <c r="D1589" t="s">
+        <v>291</v>
+      </c>
+      <c r="E1589">
+        <v>1614</v>
+      </c>
+      <c r="F1589">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3182" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3184" uniqueCount="323">
   <si>
     <t>Month</t>
   </si>
@@ -1340,7 +1340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1589"/>
+  <dimension ref="A1:F1590"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33126,6 +33126,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1590" spans="1:6">
+      <c r="A1590">
+        <v>11</v>
+      </c>
+      <c r="B1590" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1590">
+        <v>800</v>
+      </c>
+      <c r="D1590" t="s">
+        <v>316</v>
+      </c>
+      <c r="E1590">
+        <v>1615</v>
+      </c>
+      <c r="F1590">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3184" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3186" uniqueCount="323">
   <si>
     <t>Month</t>
   </si>
@@ -1340,7 +1340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1590"/>
+  <dimension ref="A1:F1591"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33146,6 +33146,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1591" spans="1:6">
+      <c r="A1591">
+        <v>11</v>
+      </c>
+      <c r="B1591" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1591">
+        <v>45</v>
+      </c>
+      <c r="D1591" t="s">
+        <v>318</v>
+      </c>
+      <c r="E1591">
+        <v>1616</v>
+      </c>
+      <c r="F1591">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3186" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3188" uniqueCount="323">
   <si>
     <t>Month</t>
   </si>
@@ -1340,7 +1340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1591"/>
+  <dimension ref="A1:F1592"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33166,6 +33166,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1592" spans="1:6">
+      <c r="A1592">
+        <v>11</v>
+      </c>
+      <c r="B1592" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1592">
+        <v>220</v>
+      </c>
+      <c r="D1592" t="s">
+        <v>319</v>
+      </c>
+      <c r="E1592">
+        <v>1617</v>
+      </c>
+      <c r="F1592">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3188" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3190" uniqueCount="323">
   <si>
     <t>Month</t>
   </si>
@@ -1340,7 +1340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1592"/>
+  <dimension ref="A1:F1593"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33186,6 +33186,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1593" spans="1:6">
+      <c r="A1593">
+        <v>11</v>
+      </c>
+      <c r="B1593" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1593">
+        <v>3108</v>
+      </c>
+      <c r="D1593" t="s">
+        <v>316</v>
+      </c>
+      <c r="E1593">
+        <v>1618</v>
+      </c>
+      <c r="F1593">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3190" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3192" uniqueCount="323">
   <si>
     <t>Month</t>
   </si>
@@ -1340,7 +1340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1593"/>
+  <dimension ref="A1:F1594"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33206,6 +33206,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1594" spans="1:6">
+      <c r="A1594">
+        <v>11</v>
+      </c>
+      <c r="B1594" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1594">
+        <v>80.72</v>
+      </c>
+      <c r="D1594" t="s">
+        <v>322</v>
+      </c>
+      <c r="E1594">
+        <v>1619</v>
+      </c>
+      <c r="F1594">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3192" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3194" uniqueCount="324">
   <si>
     <t>Month</t>
   </si>
@@ -984,6 +984,9 @@
   <si>
     <t>ΣΕΝΤΟΝΙΑ</t>
   </si>
+  <si>
+    <t xml:space="preserve">ΣΥΝΤΗΡΗΣΗ ΠΙΣΙΝΩΝ </t>
+  </si>
 </sst>
 </file>
 
@@ -1340,7 +1343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1594"/>
+  <dimension ref="A1:F1595"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33226,6 +33229,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1595" spans="1:6">
+      <c r="A1595">
+        <v>11</v>
+      </c>
+      <c r="B1595" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1595">
+        <v>793.6</v>
+      </c>
+      <c r="D1595" t="s">
+        <v>323</v>
+      </c>
+      <c r="E1595">
+        <v>1620</v>
+      </c>
+      <c r="F1595">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3194" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3196" uniqueCount="324">
   <si>
     <t>Month</t>
   </si>
@@ -1343,7 +1343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1595"/>
+  <dimension ref="A1:F1596"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33249,6 +33249,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1596" spans="1:6">
+      <c r="A1596">
+        <v>11</v>
+      </c>
+      <c r="B1596" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1596">
+        <v>207</v>
+      </c>
+      <c r="D1596" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1596">
+        <v>1621</v>
+      </c>
+      <c r="F1596">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3196" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3198" uniqueCount="324">
   <si>
     <t>Month</t>
   </si>
@@ -1343,7 +1343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1596"/>
+  <dimension ref="A1:F1597"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33269,6 +33269,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1597" spans="1:6">
+      <c r="A1597">
+        <v>11</v>
+      </c>
+      <c r="B1597" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1597">
+        <v>499</v>
+      </c>
+      <c r="D1597" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1597">
+        <v>1622</v>
+      </c>
+      <c r="F1597">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3198" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3200" uniqueCount="324">
   <si>
     <t>Month</t>
   </si>
@@ -1343,7 +1343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1597"/>
+  <dimension ref="A1:F1598"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33289,6 +33289,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1598" spans="1:6">
+      <c r="A1598">
+        <v>11</v>
+      </c>
+      <c r="B1598" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1598">
+        <v>124</v>
+      </c>
+      <c r="D1598" t="s">
+        <v>317</v>
+      </c>
+      <c r="E1598">
+        <v>1623</v>
+      </c>
+      <c r="F1598">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3200" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3202" uniqueCount="324">
   <si>
     <t>Month</t>
   </si>
@@ -1343,7 +1343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1598"/>
+  <dimension ref="A1:F1599"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33309,6 +33309,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1599" spans="1:6">
+      <c r="A1599">
+        <v>11</v>
+      </c>
+      <c r="B1599" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1599">
+        <v>169.82</v>
+      </c>
+      <c r="D1599" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1599">
+        <v>1624</v>
+      </c>
+      <c r="F1599">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3202" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3204" uniqueCount="324">
   <si>
     <t>Month</t>
   </si>
@@ -1343,7 +1343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1599"/>
+  <dimension ref="A1:F1600"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33329,6 +33329,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1600" spans="1:6">
+      <c r="A1600">
+        <v>11</v>
+      </c>
+      <c r="B1600" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1600">
+        <v>13.83</v>
+      </c>
+      <c r="D1600" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1600">
+        <v>1625</v>
+      </c>
+      <c r="F1600">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3204" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3206" uniqueCount="324">
   <si>
     <t>Month</t>
   </si>
@@ -1343,7 +1343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1600"/>
+  <dimension ref="A1:F1601"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33349,6 +33349,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1601" spans="1:6">
+      <c r="A1601">
+        <v>11</v>
+      </c>
+      <c r="B1601" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1601">
+        <v>80</v>
+      </c>
+      <c r="D1601" t="s">
+        <v>318</v>
+      </c>
+      <c r="E1601">
+        <v>1626</v>
+      </c>
+      <c r="F1601">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3206" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3208" uniqueCount="324">
   <si>
     <t>Month</t>
   </si>
@@ -1343,7 +1343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1601"/>
+  <dimension ref="A1:F1602"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33369,6 +33369,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1602" spans="1:6">
+      <c r="A1602">
+        <v>1</v>
+      </c>
+      <c r="B1602" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1602">
+        <v>9.68</v>
+      </c>
+      <c r="D1602" t="s">
+        <v>315</v>
+      </c>
+      <c r="E1602">
+        <v>1627</v>
+      </c>
+      <c r="F1602">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3208" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3210" uniqueCount="324">
   <si>
     <t>Month</t>
   </si>
@@ -1343,7 +1343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1602"/>
+  <dimension ref="A1:F1603"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33389,6 +33389,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1603" spans="1:6">
+      <c r="A1603">
+        <v>11</v>
+      </c>
+      <c r="B1603" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1603">
+        <v>9.68</v>
+      </c>
+      <c r="D1603" t="s">
+        <v>315</v>
+      </c>
+      <c r="E1603">
+        <v>1628</v>
+      </c>
+      <c r="F1603">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3210" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3212" uniqueCount="324">
   <si>
     <t>Month</t>
   </si>
@@ -1343,7 +1343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1603"/>
+  <dimension ref="A1:F1604"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33409,6 +33409,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1604" spans="1:6">
+      <c r="A1604">
+        <v>11</v>
+      </c>
+      <c r="B1604" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1604">
+        <v>49.6</v>
+      </c>
+      <c r="D1604" t="s">
+        <v>317</v>
+      </c>
+      <c r="E1604">
+        <v>1629</v>
+      </c>
+      <c r="F1604">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3212" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3214" uniqueCount="324">
   <si>
     <t>Month</t>
   </si>
@@ -1343,7 +1343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1604"/>
+  <dimension ref="A1:F1605"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33429,6 +33429,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1605" spans="1:6">
+      <c r="A1605">
+        <v>11</v>
+      </c>
+      <c r="B1605" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1605">
+        <v>45</v>
+      </c>
+      <c r="D1605" t="s">
+        <v>318</v>
+      </c>
+      <c r="E1605">
+        <v>1630</v>
+      </c>
+      <c r="F1605">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3214" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3216" uniqueCount="324">
   <si>
     <t>Month</t>
   </si>
@@ -1343,7 +1343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1605"/>
+  <dimension ref="A1:F1606"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33449,6 +33449,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1606" spans="1:6">
+      <c r="A1606">
+        <v>11</v>
+      </c>
+      <c r="B1606" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1606">
+        <v>74</v>
+      </c>
+      <c r="D1606" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1606">
+        <v>1631</v>
+      </c>
+      <c r="F1606">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3216" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3218" uniqueCount="324">
   <si>
     <t>Month</t>
   </si>
@@ -1343,7 +1343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1606"/>
+  <dimension ref="A1:F1607"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33469,6 +33469,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1607" spans="1:6">
+      <c r="A1607">
+        <v>11</v>
+      </c>
+      <c r="B1607" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1607">
+        <v>600</v>
+      </c>
+      <c r="D1607" t="s">
+        <v>316</v>
+      </c>
+      <c r="E1607">
+        <v>1632</v>
+      </c>
+      <c r="F1607">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3218" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3220" uniqueCount="324">
   <si>
     <t>Month</t>
   </si>
@@ -1343,7 +1343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1607"/>
+  <dimension ref="A1:F1608"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33489,6 +33489,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1608" spans="1:6">
+      <c r="A1608">
+        <v>11</v>
+      </c>
+      <c r="B1608" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1608">
+        <v>6475</v>
+      </c>
+      <c r="D1608" t="s">
+        <v>316</v>
+      </c>
+      <c r="E1608">
+        <v>1633</v>
+      </c>
+      <c r="F1608">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3220" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3222" uniqueCount="324">
   <si>
     <t>Month</t>
   </si>
@@ -1343,7 +1343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1608"/>
+  <dimension ref="A1:F1609"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33509,6 +33509,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1609" spans="1:6">
+      <c r="A1609">
+        <v>11</v>
+      </c>
+      <c r="B1609" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1609">
+        <v>86.8</v>
+      </c>
+      <c r="D1609" t="s">
+        <v>315</v>
+      </c>
+      <c r="E1609">
+        <v>1634</v>
+      </c>
+      <c r="F1609">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3222" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3224" uniqueCount="324">
   <si>
     <t>Month</t>
   </si>
@@ -1343,7 +1343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1609"/>
+  <dimension ref="A1:F1610"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33529,6 +33529,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1610" spans="1:6">
+      <c r="A1610">
+        <v>11</v>
+      </c>
+      <c r="B1610" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1610">
+        <v>514</v>
+      </c>
+      <c r="D1610" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1610">
+        <v>1635</v>
+      </c>
+      <c r="F1610">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3224" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3226" uniqueCount="324">
   <si>
     <t>Month</t>
   </si>
@@ -1343,7 +1343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1610"/>
+  <dimension ref="A1:F1611"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33549,6 +33549,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1611" spans="1:6">
+      <c r="A1611">
+        <v>11</v>
+      </c>
+      <c r="B1611" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1611">
+        <v>44</v>
+      </c>
+      <c r="D1611" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1611">
+        <v>1636</v>
+      </c>
+      <c r="F1611">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3226" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3228" uniqueCount="325">
   <si>
     <t>Month</t>
   </si>
@@ -987,6 +987,9 @@
   <si>
     <t xml:space="preserve">ΣΥΝΤΗΡΗΣΗ ΠΙΣΙΝΩΝ </t>
   </si>
+  <si>
+    <t xml:space="preserve">ΒΟΘΡΟΣ </t>
+  </si>
 </sst>
 </file>
 
@@ -1343,7 +1346,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1611"/>
+  <dimension ref="A1:F1612"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33569,6 +33572,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1612" spans="1:6">
+      <c r="A1612">
+        <v>11</v>
+      </c>
+      <c r="B1612" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1612">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="D1612" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1612">
+        <v>1637</v>
+      </c>
+      <c r="F1612">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3228" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3230" uniqueCount="326">
   <si>
     <t>Month</t>
   </si>
@@ -990,6 +990,9 @@
   <si>
     <t xml:space="preserve">ΒΟΘΡΟΣ </t>
   </si>
+  <si>
+    <t xml:space="preserve">κουλοχέρης </t>
+  </si>
 </sst>
 </file>
 
@@ -1346,7 +1349,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1612"/>
+  <dimension ref="A1:F1613"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33592,6 +33595,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1613" spans="1:6">
+      <c r="A1613">
+        <v>11</v>
+      </c>
+      <c r="B1613" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1613">
+        <v>10.7</v>
+      </c>
+      <c r="D1613" t="s">
+        <v>325</v>
+      </c>
+      <c r="E1613">
+        <v>1638</v>
+      </c>
+      <c r="F1613">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3230" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3232" uniqueCount="326">
   <si>
     <t>Month</t>
   </si>
@@ -1349,7 +1349,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1613"/>
+  <dimension ref="A1:F1614"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33615,6 +33615,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1614" spans="1:6">
+      <c r="A1614">
+        <v>11</v>
+      </c>
+      <c r="B1614" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1614">
+        <v>7.2</v>
+      </c>
+      <c r="D1614" t="s">
+        <v>325</v>
+      </c>
+      <c r="E1614">
+        <v>1639</v>
+      </c>
+      <c r="F1614">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3232" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3234" uniqueCount="327">
   <si>
     <t>Month</t>
   </si>
@@ -993,6 +993,9 @@
   <si>
     <t xml:space="preserve">κουλοχέρης </t>
   </si>
+  <si>
+    <t xml:space="preserve">ΒΟΘΡΟΣ  </t>
+  </si>
 </sst>
 </file>
 
@@ -1349,7 +1352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1614"/>
+  <dimension ref="A1:F1615"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33635,6 +33638,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1615" spans="1:6">
+      <c r="A1615">
+        <v>11</v>
+      </c>
+      <c r="B1615" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1615">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="D1615" t="s">
+        <v>326</v>
+      </c>
+      <c r="E1615">
+        <v>1640</v>
+      </c>
+      <c r="F1615">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3234" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3236" uniqueCount="327">
   <si>
     <t>Month</t>
   </si>
@@ -1352,7 +1352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1615"/>
+  <dimension ref="A1:F1616"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33658,6 +33658,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1616" spans="1:6">
+      <c r="A1616">
+        <v>11</v>
+      </c>
+      <c r="B1616" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1616">
+        <v>1128.5</v>
+      </c>
+      <c r="D1616" t="s">
+        <v>322</v>
+      </c>
+      <c r="E1616">
+        <v>1641</v>
+      </c>
+      <c r="F1616">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3236" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3238" uniqueCount="327">
   <si>
     <t>Month</t>
   </si>
@@ -1352,7 +1352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1616"/>
+  <dimension ref="A1:F1617"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33678,6 +33678,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1617" spans="1:6">
+      <c r="A1617">
+        <v>11</v>
+      </c>
+      <c r="B1617" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1617">
+        <v>40</v>
+      </c>
+      <c r="D1617" t="s">
+        <v>320</v>
+      </c>
+      <c r="E1617">
+        <v>1642</v>
+      </c>
+      <c r="F1617">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3238" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3240" uniqueCount="327">
   <si>
     <t>Month</t>
   </si>
@@ -1352,7 +1352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1617"/>
+  <dimension ref="A1:F1618"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33698,6 +33698,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1618" spans="1:6">
+      <c r="A1618">
+        <v>11</v>
+      </c>
+      <c r="B1618" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1618">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="D1618" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1618">
+        <v>1643</v>
+      </c>
+      <c r="F1618">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3240" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3242" uniqueCount="327">
   <si>
     <t>Month</t>
   </si>
@@ -1352,7 +1352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1618"/>
+  <dimension ref="A1:F1619"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33718,6 +33718,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1619" spans="1:6">
+      <c r="A1619">
+        <v>11</v>
+      </c>
+      <c r="B1619" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1619">
+        <v>52.77</v>
+      </c>
+      <c r="D1619" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1619">
+        <v>1644</v>
+      </c>
+      <c r="F1619">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3242" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3244" uniqueCount="327">
   <si>
     <t>Month</t>
   </si>
@@ -1352,7 +1352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1619"/>
+  <dimension ref="A1:F1620"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33738,6 +33738,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1620" spans="1:6">
+      <c r="A1620">
+        <v>11</v>
+      </c>
+      <c r="B1620" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1620">
+        <v>49.6</v>
+      </c>
+      <c r="D1620" t="s">
+        <v>317</v>
+      </c>
+      <c r="E1620">
+        <v>1645</v>
+      </c>
+      <c r="F1620">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3244" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3246" uniqueCount="327">
   <si>
     <t>Month</t>
   </si>
@@ -1352,7 +1352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1620"/>
+  <dimension ref="A1:F1621"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33758,6 +33758,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1621" spans="1:6">
+      <c r="A1621">
+        <v>11</v>
+      </c>
+      <c r="B1621" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1621">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="D1621" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1621">
+        <v>1646</v>
+      </c>
+      <c r="F1621">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3246" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3248" uniqueCount="327">
   <si>
     <t>Month</t>
   </si>
@@ -1352,7 +1352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1621"/>
+  <dimension ref="A1:F1622"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33778,6 +33778,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1622" spans="1:6">
+      <c r="A1622">
+        <v>11</v>
+      </c>
+      <c r="B1622" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1622">
+        <v>47.8</v>
+      </c>
+      <c r="D1622" t="s">
+        <v>325</v>
+      </c>
+      <c r="E1622">
+        <v>1647</v>
+      </c>
+      <c r="F1622">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3248" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3250" uniqueCount="328">
   <si>
     <t>Month</t>
   </si>
@@ -996,6 +996,9 @@
   <si>
     <t xml:space="preserve">ΒΟΘΡΟΣ  </t>
   </si>
+  <si>
+    <t xml:space="preserve">εργασίες βαγγελη </t>
+  </si>
 </sst>
 </file>
 
@@ -1352,7 +1355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1622"/>
+  <dimension ref="A1:F1623"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33798,6 +33801,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1623" spans="1:6">
+      <c r="A1623">
+        <v>11</v>
+      </c>
+      <c r="B1623" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1623">
+        <v>600</v>
+      </c>
+      <c r="D1623" t="s">
+        <v>327</v>
+      </c>
+      <c r="E1623">
+        <v>1648</v>
+      </c>
+      <c r="F1623">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3250" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3252" uniqueCount="328">
   <si>
     <t>Month</t>
   </si>
@@ -1355,7 +1355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1623"/>
+  <dimension ref="A1:F1624"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33821,6 +33821,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1624" spans="1:6">
+      <c r="A1624">
+        <v>11</v>
+      </c>
+      <c r="B1624" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1624">
+        <v>1498</v>
+      </c>
+      <c r="D1624" t="s">
+        <v>319</v>
+      </c>
+      <c r="E1624">
+        <v>1649</v>
+      </c>
+      <c r="F1624">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3252" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3254" uniqueCount="329">
   <si>
     <t>Month</t>
   </si>
@@ -999,6 +999,9 @@
   <si>
     <t xml:space="preserve">εργασίες βαγγελη </t>
   </si>
+  <si>
+    <t>καθαρισμοι</t>
+  </si>
 </sst>
 </file>
 
@@ -1355,7 +1358,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1624"/>
+  <dimension ref="A1:F1625"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33841,6 +33844,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1625" spans="1:6">
+      <c r="A1625">
+        <v>11</v>
+      </c>
+      <c r="B1625" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1625">
+        <v>924</v>
+      </c>
+      <c r="D1625" t="s">
+        <v>328</v>
+      </c>
+      <c r="E1625">
+        <v>1650</v>
+      </c>
+      <c r="F1625">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3254" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3256" uniqueCount="330">
   <si>
     <t>Month</t>
   </si>
@@ -1002,6 +1002,9 @@
   <si>
     <t>καθαρισμοι</t>
   </si>
+  <si>
+    <t>καθαρισμοί</t>
+  </si>
 </sst>
 </file>
 
@@ -1358,7 +1361,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1625"/>
+  <dimension ref="A1:F1626"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33864,6 +33867,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1626" spans="1:6">
+      <c r="A1626">
+        <v>11</v>
+      </c>
+      <c r="B1626" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1626">
+        <v>759</v>
+      </c>
+      <c r="D1626" t="s">
+        <v>329</v>
+      </c>
+      <c r="E1626">
+        <v>1651</v>
+      </c>
+      <c r="F1626">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3256" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3258" uniqueCount="331">
   <si>
     <t>Month</t>
   </si>
@@ -1005,6 +1005,9 @@
   <si>
     <t>καθαρισμοί</t>
   </si>
+  <si>
+    <t>ιματισμός</t>
+  </si>
 </sst>
 </file>
 
@@ -1361,7 +1364,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1626"/>
+  <dimension ref="A1:F1627"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33887,6 +33890,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1627" spans="1:6">
+      <c r="A1627">
+        <v>11</v>
+      </c>
+      <c r="B1627" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1627">
+        <v>548</v>
+      </c>
+      <c r="D1627" t="s">
+        <v>330</v>
+      </c>
+      <c r="E1627">
+        <v>1652</v>
+      </c>
+      <c r="F1627">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3258" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3260" uniqueCount="332">
   <si>
     <t>Month</t>
   </si>
@@ -1008,6 +1008,9 @@
   <si>
     <t>ιματισμός</t>
   </si>
+  <si>
+    <t>καθαρισμός</t>
+  </si>
 </sst>
 </file>
 
@@ -1364,7 +1367,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1627"/>
+  <dimension ref="A1:F1628"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33910,6 +33913,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1628" spans="1:6">
+      <c r="A1628">
+        <v>1</v>
+      </c>
+      <c r="B1628" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1628">
+        <v>165</v>
+      </c>
+      <c r="D1628" t="s">
+        <v>331</v>
+      </c>
+      <c r="E1628">
+        <v>1653</v>
+      </c>
+      <c r="F1628">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3260" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3262" uniqueCount="332">
   <si>
     <t>Month</t>
   </si>
@@ -1367,7 +1367,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1628"/>
+  <dimension ref="A1:F1629"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33933,6 +33933,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1629" spans="1:6">
+      <c r="A1629">
+        <v>11</v>
+      </c>
+      <c r="B1629" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1629">
+        <v>165</v>
+      </c>
+      <c r="D1629" t="s">
+        <v>331</v>
+      </c>
+      <c r="E1629">
+        <v>1654</v>
+      </c>
+      <c r="F1629">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3262" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3264" uniqueCount="332">
   <si>
     <t>Month</t>
   </si>
@@ -1367,7 +1367,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1629"/>
+  <dimension ref="A1:F1630"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33953,6 +33953,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1630" spans="1:6">
+      <c r="A1630">
+        <v>11</v>
+      </c>
+      <c r="B1630" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1630">
+        <v>100</v>
+      </c>
+      <c r="D1630" t="s">
+        <v>330</v>
+      </c>
+      <c r="E1630">
+        <v>1655</v>
+      </c>
+      <c r="F1630">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3264" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3266" uniqueCount="332">
   <si>
     <t>Month</t>
   </si>
@@ -1367,7 +1367,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1630"/>
+  <dimension ref="A1:F1631"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33973,6 +33973,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1631" spans="1:6">
+      <c r="A1631">
+        <v>11</v>
+      </c>
+      <c r="B1631" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1631">
+        <v>726</v>
+      </c>
+      <c r="D1631" t="s">
+        <v>331</v>
+      </c>
+      <c r="E1631">
+        <v>1656</v>
+      </c>
+      <c r="F1631">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3266" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3268" uniqueCount="332">
   <si>
     <t>Month</t>
   </si>
@@ -1367,7 +1367,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1631"/>
+  <dimension ref="A1:F1632"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33993,6 +33993,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1632" spans="1:6">
+      <c r="A1632">
+        <v>11</v>
+      </c>
+      <c r="B1632" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1632">
+        <v>581</v>
+      </c>
+      <c r="D1632" t="s">
+        <v>330</v>
+      </c>
+      <c r="E1632">
+        <v>1657</v>
+      </c>
+      <c r="F1632">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3268" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3270" uniqueCount="332">
   <si>
     <t>Month</t>
   </si>
@@ -1367,7 +1367,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1632"/>
+  <dimension ref="A1:F1633"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -34013,6 +34013,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1633" spans="1:6">
+      <c r="A1633">
+        <v>11</v>
+      </c>
+      <c r="B1633" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1633">
+        <v>55</v>
+      </c>
+      <c r="D1633" t="s">
+        <v>331</v>
+      </c>
+      <c r="E1633">
+        <v>1658</v>
+      </c>
+      <c r="F1633">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3270" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3272" uniqueCount="332">
   <si>
     <t>Month</t>
   </si>
@@ -1367,7 +1367,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1633"/>
+  <dimension ref="A1:F1634"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -34033,6 +34033,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1634" spans="1:6">
+      <c r="A1634">
+        <v>11</v>
+      </c>
+      <c r="B1634" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1634">
+        <v>35</v>
+      </c>
+      <c r="D1634" t="s">
+        <v>330</v>
+      </c>
+      <c r="E1634">
+        <v>1659</v>
+      </c>
+      <c r="F1634">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3272" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3274" uniqueCount="332">
   <si>
     <t>Month</t>
   </si>
@@ -1367,7 +1367,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1634"/>
+  <dimension ref="A1:F1635"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -34053,6 +34053,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1635" spans="1:6">
+      <c r="A1635">
+        <v>11</v>
+      </c>
+      <c r="B1635" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1635">
+        <v>55</v>
+      </c>
+      <c r="D1635" t="s">
+        <v>331</v>
+      </c>
+      <c r="E1635">
+        <v>1660</v>
+      </c>
+      <c r="F1635">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3274" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3276" uniqueCount="333">
   <si>
     <t>Month</t>
   </si>
@@ -1011,6 +1011,9 @@
   <si>
     <t>καθαρισμός</t>
   </si>
+  <si>
+    <t xml:space="preserve">ιματισμός </t>
+  </si>
 </sst>
 </file>
 
@@ -1367,7 +1370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1635"/>
+  <dimension ref="A1:F1636"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -34073,6 +34076,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1636" spans="1:6">
+      <c r="A1636">
+        <v>11</v>
+      </c>
+      <c r="B1636" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1636">
+        <v>35</v>
+      </c>
+      <c r="D1636" t="s">
+        <v>332</v>
+      </c>
+      <c r="E1636">
+        <v>1661</v>
+      </c>
+      <c r="F1636">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3276" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3278" uniqueCount="333">
   <si>
     <t>Month</t>
   </si>
@@ -1370,7 +1370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1636"/>
+  <dimension ref="A1:F1637"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -34096,6 +34096,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1637" spans="1:6">
+      <c r="A1637">
+        <v>11</v>
+      </c>
+      <c r="B1637" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1637">
+        <v>374</v>
+      </c>
+      <c r="D1637" t="s">
+        <v>331</v>
+      </c>
+      <c r="E1637">
+        <v>1662</v>
+      </c>
+      <c r="F1637">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3278" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3280" uniqueCount="333">
   <si>
     <t>Month</t>
   </si>
@@ -1370,7 +1370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1637"/>
+  <dimension ref="A1:F1638"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -34116,6 +34116,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1638" spans="1:6">
+      <c r="A1638">
+        <v>11</v>
+      </c>
+      <c r="B1638" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1638">
+        <v>266</v>
+      </c>
+      <c r="D1638" t="s">
+        <v>330</v>
+      </c>
+      <c r="E1638">
+        <v>1663</v>
+      </c>
+      <c r="F1638">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3280" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3282" uniqueCount="333">
   <si>
     <t>Month</t>
   </si>
@@ -1370,7 +1370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1638"/>
+  <dimension ref="A1:F1639"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -34136,6 +34136,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1639" spans="1:6">
+      <c r="A1639">
+        <v>11</v>
+      </c>
+      <c r="B1639" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1639">
+        <v>319</v>
+      </c>
+      <c r="D1639" t="s">
+        <v>331</v>
+      </c>
+      <c r="E1639">
+        <v>1664</v>
+      </c>
+      <c r="F1639">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3282" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3284" uniqueCount="333">
   <si>
     <t>Month</t>
   </si>
@@ -1370,7 +1370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1639"/>
+  <dimension ref="A1:F1640"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -34156,6 +34156,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1640" spans="1:6">
+      <c r="A1640">
+        <v>11</v>
+      </c>
+      <c r="B1640" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1640">
+        <v>199</v>
+      </c>
+      <c r="D1640" t="s">
+        <v>330</v>
+      </c>
+      <c r="E1640">
+        <v>1665</v>
+      </c>
+      <c r="F1640">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3284" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3286" uniqueCount="333">
   <si>
     <t>Month</t>
   </si>
@@ -1370,7 +1370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1640"/>
+  <dimension ref="A1:F1641"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -34176,6 +34176,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1641" spans="1:6">
+      <c r="A1641">
+        <v>11</v>
+      </c>
+      <c r="B1641" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1641">
+        <v>120</v>
+      </c>
+      <c r="D1641" t="s">
+        <v>331</v>
+      </c>
+      <c r="E1641">
+        <v>1666</v>
+      </c>
+      <c r="F1641">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3286" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3288" uniqueCount="333">
   <si>
     <t>Month</t>
   </si>
@@ -1370,7 +1370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1641"/>
+  <dimension ref="A1:F1642"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -34196,6 +34196,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1642" spans="1:6">
+      <c r="A1642">
+        <v>11</v>
+      </c>
+      <c r="B1642" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1642">
+        <v>69</v>
+      </c>
+      <c r="D1642" t="s">
+        <v>330</v>
+      </c>
+      <c r="E1642">
+        <v>1667</v>
+      </c>
+      <c r="F1642">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3288" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3290" uniqueCount="333">
   <si>
     <t>Month</t>
   </si>
@@ -1370,7 +1370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1642"/>
+  <dimension ref="A1:F1643"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -34216,6 +34216,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1643" spans="1:6">
+      <c r="A1643">
+        <v>11</v>
+      </c>
+      <c r="B1643" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1643">
+        <v>880</v>
+      </c>
+      <c r="D1643" t="s">
+        <v>331</v>
+      </c>
+      <c r="E1643">
+        <v>1668</v>
+      </c>
+      <c r="F1643">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3290" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3292" uniqueCount="333">
   <si>
     <t>Month</t>
   </si>
@@ -1370,7 +1370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1643"/>
+  <dimension ref="A1:F1644"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -34236,6 +34236,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1644" spans="1:6">
+      <c r="A1644">
+        <v>11</v>
+      </c>
+      <c r="B1644" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1644">
+        <v>212</v>
+      </c>
+      <c r="D1644" t="s">
+        <v>330</v>
+      </c>
+      <c r="E1644">
+        <v>1669</v>
+      </c>
+      <c r="F1644">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3292" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3294" uniqueCount="333">
   <si>
     <t>Month</t>
   </si>
@@ -1370,7 +1370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1644"/>
+  <dimension ref="A1:F1645"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -34256,6 +34256,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1645" spans="1:6">
+      <c r="A1645">
+        <v>11</v>
+      </c>
+      <c r="B1645" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1645">
+        <v>4860</v>
+      </c>
+      <c r="D1645" t="s">
+        <v>331</v>
+      </c>
+      <c r="E1645">
+        <v>1670</v>
+      </c>
+      <c r="F1645">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3294" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3296" uniqueCount="333">
   <si>
     <t>Month</t>
   </si>
@@ -1370,7 +1370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1645"/>
+  <dimension ref="A1:F1646"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -34276,6 +34276,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1646" spans="1:6">
+      <c r="A1646">
+        <v>11</v>
+      </c>
+      <c r="B1646" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1646">
+        <v>315</v>
+      </c>
+      <c r="D1646" t="s">
+        <v>330</v>
+      </c>
+      <c r="E1646">
+        <v>1671</v>
+      </c>
+      <c r="F1646">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3296" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3298" uniqueCount="333">
   <si>
     <t>Month</t>
   </si>
@@ -1370,7 +1370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1646"/>
+  <dimension ref="A1:F1647"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -34296,6 +34296,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1647" spans="1:6">
+      <c r="A1647">
+        <v>11</v>
+      </c>
+      <c r="B1647" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1647">
+        <v>570</v>
+      </c>
+      <c r="D1647" t="s">
+        <v>331</v>
+      </c>
+      <c r="E1647">
+        <v>1672</v>
+      </c>
+      <c r="F1647">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3298" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3300" uniqueCount="333">
   <si>
     <t>Month</t>
   </si>
@@ -1370,7 +1370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1647"/>
+  <dimension ref="A1:F1648"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -34316,6 +34316,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1648" spans="1:6">
+      <c r="A1648">
+        <v>11</v>
+      </c>
+      <c r="B1648" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1648">
+        <v>200</v>
+      </c>
+      <c r="D1648" t="s">
+        <v>331</v>
+      </c>
+      <c r="E1648">
+        <v>1673</v>
+      </c>
+      <c r="F1648">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3300" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3302" uniqueCount="333">
   <si>
     <t>Month</t>
   </si>
@@ -1370,7 +1370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1648"/>
+  <dimension ref="A1:F1649"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -34336,6 +34336,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1649" spans="1:6">
+      <c r="A1649">
+        <v>11</v>
+      </c>
+      <c r="B1649" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1649">
+        <v>35</v>
+      </c>
+      <c r="D1649" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1649">
+        <v>1674</v>
+      </c>
+      <c r="F1649">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3302" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3304" uniqueCount="333">
   <si>
     <t>Month</t>
   </si>
@@ -1370,7 +1370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1649"/>
+  <dimension ref="A1:F1650"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -34356,6 +34356,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1650" spans="1:6">
+      <c r="A1650">
+        <v>11</v>
+      </c>
+      <c r="B1650" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1650">
+        <v>300</v>
+      </c>
+      <c r="D1650" t="s">
+        <v>331</v>
+      </c>
+      <c r="E1650">
+        <v>1675</v>
+      </c>
+      <c r="F1650">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3304" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3306" uniqueCount="333">
   <si>
     <t>Month</t>
   </si>
@@ -1370,7 +1370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1650"/>
+  <dimension ref="A1:F1651"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -34376,6 +34376,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1651" spans="1:6">
+      <c r="A1651">
+        <v>11</v>
+      </c>
+      <c r="B1651" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1651">
+        <v>288</v>
+      </c>
+      <c r="D1651" t="s">
+        <v>330</v>
+      </c>
+      <c r="E1651">
+        <v>1676</v>
+      </c>
+      <c r="F1651">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3306" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3308" uniqueCount="333">
   <si>
     <t>Month</t>
   </si>
@@ -1370,7 +1370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1651"/>
+  <dimension ref="A1:F1652"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -34396,6 +34396,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1652" spans="1:6">
+      <c r="A1652">
+        <v>11</v>
+      </c>
+      <c r="B1652" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1652">
+        <v>171</v>
+      </c>
+      <c r="D1652" t="s">
+        <v>331</v>
+      </c>
+      <c r="E1652">
+        <v>1677</v>
+      </c>
+      <c r="F1652">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3308" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3310" uniqueCount="333">
   <si>
     <t>Month</t>
   </si>
@@ -1370,7 +1370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1652"/>
+  <dimension ref="A1:F1653"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -34416,6 +34416,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1653" spans="1:6">
+      <c r="A1653">
+        <v>11</v>
+      </c>
+      <c r="B1653" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1653">
+        <v>135</v>
+      </c>
+      <c r="D1653" t="s">
+        <v>330</v>
+      </c>
+      <c r="E1653">
+        <v>1678</v>
+      </c>
+      <c r="F1653">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3310" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3311" uniqueCount="333">
   <si>
     <t>Month</t>
   </si>
@@ -1370,7 +1370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1653"/>
+  <dimension ref="A1:F1654"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -34436,6 +34436,23 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1654" spans="1:6">
+      <c r="A1654">
+        <v>11</v>
+      </c>
+      <c r="B1654" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1654">
+        <v>1352</v>
+      </c>
+      <c r="E1654">
+        <v>1679</v>
+      </c>
+      <c r="F1654">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3311" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3313" uniqueCount="333">
   <si>
     <t>Month</t>
   </si>
@@ -1370,7 +1370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1654"/>
+  <dimension ref="A1:F1655"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -34453,6 +34453,26 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="1655" spans="1:6">
+      <c r="A1655">
+        <v>11</v>
+      </c>
+      <c r="B1655" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1655">
+        <v>2724</v>
+      </c>
+      <c r="D1655" t="s">
+        <v>331</v>
+      </c>
+      <c r="E1655">
+        <v>1680</v>
+      </c>
+      <c r="F1655">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
